--- a/Planning & Analysis.xlsx
+++ b/Planning & Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/416c3924b085e956/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shinyorg\shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{C90D7888-AE2A-4D07-94DC-9892E8918DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1566169-F454-47B8-9CB5-68635FFD7553}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD1B634-64B1-4F97-ACE7-7F2A4AD536B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
+    <workbookView xWindow="460" yWindow="2600" windowWidth="28800" windowHeight="15370" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Feature Analysis" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
   <si>
     <t>Startup</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>Lifecycle Firing?</t>
+  </si>
+  <si>
+    <t>Background Listening??</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Startups are usually to write delegates before system spins up</t>
+  </si>
+  <si>
+    <t>Anything requiring repository or permissions - needs platform</t>
   </si>
 </sst>
 </file>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DD48B-CA33-4E1C-94C3-D30E7253B570}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,12 +968,14 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
@@ -999,7 +1013,9 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
         <v>35</v>
@@ -1031,7 +1047,9 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
@@ -1088,7 +1106,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1116,8 +1136,12 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1149,7 +1173,9 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1205,9 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1237,9 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1233,8 +1263,12 @@
         <v>20</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1281,7 +1315,9 @@
         <v>82</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1321,6 +1357,16 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Planning & Analysis.xlsx
+++ b/Planning & Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shinyorg\shiny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allanritchie/Desktop/shiny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD1B634-64B1-4F97-ACE7-7F2A4AD536B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D993B16-249E-724A-B6BB-8B0A4F94C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2600" windowWidth="28800" windowHeight="15370" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22280" activeTab="1" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Feature Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Blocked Features" sheetId="6" r:id="rId4"/>
     <sheet name="Framework" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
   <si>
     <t>Startup</t>
   </si>
@@ -352,9 +350,6 @@
     <t>Above chart is to help determine necessity of hosting for each plugin or to split hosting out?</t>
   </si>
   <si>
-    <t>Lifecycle Firing?</t>
-  </si>
-  <si>
     <t>Background Listening??</t>
   </si>
   <si>
@@ -365,6 +360,24 @@
   </si>
   <si>
     <t>Anything requiring repository or permissions - needs platform</t>
+  </si>
+  <si>
+    <t>Browser (ie. Edge - Microsoft?)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>Needed - but not sql based?</t>
+  </si>
+  <si>
+    <t>Necessary?</t>
+  </si>
+  <si>
+    <t>Useful - not in essentials.  Needed by Jobs</t>
   </si>
 </sst>
 </file>
@@ -504,8 +517,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8B997DF5-1F70-4D05-A277-DB1821D153B1}" name="Table9" displayName="Table9" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{8B997DF5-1F70-4D05-A277-DB1821D153B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8B997DF5-1F70-4D05-A277-DB1821D153B1}" name="Table9" displayName="Table9" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12" xr:uid="{8B997DF5-1F70-4D05-A277-DB1821D153B1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4AD44B75-4AB5-4D50-A683-858CEAE0DF9F}" name="Function"/>
     <tableColumn id="2" xr3:uid="{FDFC158B-35C7-4FCF-8701-CA05010ACC47}" name="Web Assembly"/>
@@ -526,7 +539,7 @@
     <tableColumn id="2" xr3:uid="{3A35BB51-6107-4B0F-862A-A37E299DD982}" name="Replacement"/>
     <tableColumn id="3" xr3:uid="{4BE6D8C5-BB0E-462C-8FF4-4F5F176CFE7E}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -537,7 +550,17 @@
     <tableColumn id="1" xr3:uid="{32A59D28-B3DE-49D6-BD3F-563E01BE0CAC}" name="Library"/>
     <tableColumn id="2" xr3:uid="{66CBF6D9-CCC4-4C1A-84BD-7E9B50D7C93E}" name="Reason"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A581705-4D72-824D-A6CE-A77ABD5CCABF}" name="Table2" displayName="Table2" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{0A581705-4D72-824D-A6CE-A77ABD5CCABF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{83426C67-69DE-4E44-8DC1-717D15558371}" name="Feature"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -840,29 +863,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DD48B-CA33-4E1C-94C3-D30E7253B570}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="22.08984375" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -906,7 +929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -938,7 +961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -964,7 +987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1071,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1072,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1281,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1284,7 +1307,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1334,39 +1357,39 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1379,22 +1402,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3C381B-CFB3-4346-B649-B6650CD75C64}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1414,55 +1437,167 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,18 +1612,18 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="91.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1510,7 +1645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1540,7 +1675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1551,7 +1686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1562,7 +1697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1586,16 +1721,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1603,7 +1738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1611,7 +1746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1619,7 +1754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1627,7 +1762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1648,45 +1783,48 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Planning & Analysis.xlsx
+++ b/Planning & Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allanritchie/Desktop/shiny/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shinyorg\shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D993B16-249E-724A-B6BB-8B0A4F94C320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17F89A-D9B3-4599-A4FA-1F7C9AD6E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22280" activeTab="1" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Feature Analysis" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
   <si>
     <t>Startup</t>
   </si>
@@ -378,13 +378,22 @@
   </si>
   <si>
     <t>Useful - not in essentials.  Needed by Jobs</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +422,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +453,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -460,22 +482,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +534,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0A9793E3-A0D7-4514-A3E8-E02341DB246B}" name="Table3" displayName="Table3" ref="A1:N15" totalsRowShown="0">
-  <autoFilter ref="A1:N15" xr:uid="{0A9793E3-A0D7-4514-A3E8-E02341DB246B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0A9793E3-A0D7-4514-A3E8-E02341DB246B}" name="Table3" displayName="Table3" ref="A1:N16" totalsRowShown="0">
+  <autoFilter ref="A1:N16" xr:uid="{0A9793E3-A0D7-4514-A3E8-E02341DB246B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{5F9C4FDF-7FA8-4AEE-9FB8-5A3F55355551}" name="Component"/>
     <tableColumn id="2" xr3:uid="{AA34DFA6-CE4E-434F-AE7A-733791531573}" name="Startup"/>
@@ -861,31 +901,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DD48B-CA33-4E1C-94C3-D30E7253B570}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -929,7 +969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -961,7 +1001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1025,7 +1065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1321,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1347,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1357,38 +1397,80 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1404,20 +1486,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3C381B-CFB3-4346-B649-B6650CD75C64}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1437,7 +1519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1447,7 +1529,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1539,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1467,7 +1549,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1507,7 +1589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1547,7 +1629,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1565,7 +1647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1575,7 +1657,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1587,7 +1669,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1615,15 +1697,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="91.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1645,7 +1727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1653,7 +1735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1686,7 +1768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1697,7 +1779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1724,13 +1806,13 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1738,7 +1820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1746,7 +1828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1754,7 +1836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1762,7 +1844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1786,37 +1868,37 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>

--- a/Planning & Analysis.xlsx
+++ b/Planning & Analysis.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shinyorg\shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17F89A-D9B3-4599-A4FA-1F7C9AD6E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EFD8D7-D170-4E25-9BE3-700FC59578D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
+    <workbookView xWindow="2540" yWindow="3320" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{FBA5338F-6A38-496E-92DE-5CE895C325C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Feature Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Platform" sheetId="2" r:id="rId2"/>
-    <sheet name="Feature Movement" sheetId="5" r:id="rId3"/>
-    <sheet name="Blocked Features" sheetId="6" r:id="rId4"/>
-    <sheet name="Framework" sheetId="8" r:id="rId5"/>
+    <sheet name="Blazor" sheetId="9" r:id="rId2"/>
+    <sheet name="Platform" sheetId="2" r:id="rId3"/>
+    <sheet name="Feature Movement" sheetId="5" r:id="rId4"/>
+    <sheet name="Blocked Features" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
   <si>
     <t>Startup</t>
   </si>
@@ -116,12 +116,6 @@
     <t>If using direct GPS</t>
   </si>
   <si>
-    <t>mDNS Broadcasting</t>
-  </si>
-  <si>
-    <t>iOS Push Notification Interceptor (Location &amp; Mutator)</t>
-  </si>
-  <si>
     <t>Shiny Task</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Persisted State</t>
   </si>
   <si>
-    <t>Persisted State requires control over DI startup</t>
-  </si>
-  <si>
     <t>MAYBE in future</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>Configuration Extensions</t>
   </si>
   <si>
-    <t>User Dialogs</t>
-  </si>
-  <si>
     <t>Shiny.Push.FirebaseMessaging</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>Shiny.Logging.AppCenter</t>
   </si>
   <si>
-    <t>iOS 3rd Party</t>
-  </si>
-  <si>
     <t>AppCenter</t>
   </si>
   <si>
@@ -290,9 +275,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Localization</t>
-  </si>
-  <si>
     <t>Connectivity</t>
   </si>
   <si>
@@ -311,24 +293,6 @@
     <t>Needed only by foreground event</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>ViewModel</t>
-  </si>
-  <si>
-    <t>Prism Integration</t>
-  </si>
-  <si>
-    <t>ReactiveUI Integration</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Message Bus is bonus feature</t>
-  </si>
-  <si>
     <t>Configuration</t>
   </si>
   <si>
@@ -347,21 +311,12 @@
     <t>Maybe for iOS dialogs</t>
   </si>
   <si>
-    <t>Above chart is to help determine necessity of hosting for each plugin or to split hosting out?</t>
-  </si>
-  <si>
     <t>Background Listening??</t>
   </si>
   <si>
     <t>Deprecated</t>
   </si>
   <si>
-    <t>Startups are usually to write delegates before system spins up</t>
-  </si>
-  <si>
-    <t>Anything requiring repository or permissions - needs platform</t>
-  </si>
-  <si>
     <t>Browser (ie. Edge - Microsoft?)</t>
   </si>
   <si>
@@ -387,6 +342,24 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>BluetoothLE</t>
+  </si>
+  <si>
+    <t>Locations - GPS only</t>
+  </si>
+  <si>
+    <t>Core - Connectivity</t>
+  </si>
+  <si>
+    <t>Core - Battery</t>
   </si>
 </sst>
 </file>
@@ -584,21 +557,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D345163C-329F-4566-A5B5-E3E179D5F2FD}" name="Table6" displayName="Table6" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{D345163C-329F-4566-A5B5-E3E179D5F2FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D345163C-329F-4566-A5B5-E3E179D5F2FD}" name="Table6" displayName="Table6" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{D345163C-329F-4566-A5B5-E3E179D5F2FD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{32A59D28-B3DE-49D6-BD3F-563E01BE0CAC}" name="Library"/>
     <tableColumn id="2" xr3:uid="{66CBF6D9-CCC4-4C1A-84BD-7E9B50D7C93E}" name="Reason"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A581705-4D72-824D-A6CE-A77ABD5CCABF}" name="Table2" displayName="Table2" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{0A581705-4D72-824D-A6CE-A77ABD5CCABF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{83426C67-69DE-4E44-8DC1-717D15558371}" name="Feature"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,31 +864,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6DD48B-CA33-4E1C-94C3-D30E7253B570}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -942,34 +905,34 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -983,7 +946,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -995,13 +958,13 @@
         <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1020,14 +983,14 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1042,10 +1005,10 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1059,13 +1022,13 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1044,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1094,16 +1057,16 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1074,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1128,14 +1091,14 @@
         <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1159,13 +1122,13 @@
         <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1192,10 +1155,10 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1220,16 +1183,16 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1254,14 +1217,14 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1284,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1347,9 +1310,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
@@ -1358,7 +1321,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
@@ -1370,12 +1333,12 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
@@ -1397,81 +1360,46 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1483,6 +1411,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EFCFB6-B898-4223-A372-DBB251926B4A}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3C381B-CFB3-4346-B649-B6650CD75C64}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1490,38 +1483,38 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -1529,9 +1522,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -1539,9 +1532,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1549,107 +1542,107 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -1657,138 +1650,29 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D45D83-9BCF-41F3-AEEE-6B23534485CE}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,56 +1683,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6466D272-45F0-4444-A1DD-F69955F3D21A}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D45D83-9BCF-41F3-AEEE-6B23534485CE}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="91.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1861,46 +1792,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC4FEE0-6D69-435A-83EC-A0F4FA0436C3}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6466D272-45F0-4444-A1DD-F69955F3D21A}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
